--- a/Results/metrics_summary_planet_2023.xlsx
+++ b/Results/metrics_summary_planet_2023.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Location_1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Location_2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Location_3" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Location_4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Location_5" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="Location_1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Location_2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Location_3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Location_4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="Location_5" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -492,7 +492,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.891030293804163</v>
+        <v>0.8910302938041627</v>
       </c>
       <c r="D2" t="n">
         <v>0.7939349844767331</v>
@@ -532,7 +532,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.9336657123281271</v>
+        <v>0.933665712328127</v>
       </c>
       <c r="D4" t="n">
         <v>0.8717316623771888</v>
@@ -552,7 +552,7 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.9180326868643003</v>
+        <v>0.9180326868643002</v>
       </c>
       <c r="D5" t="n">
         <v>0.8427840141512868</v>
@@ -572,7 +572,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.8451429698876927</v>
+        <v>0.8451429698876928</v>
       </c>
       <c r="D6" t="n">
         <v>0.7142666395505896</v>
@@ -612,7 +612,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.8267683534311602</v>
+        <v>0.8267683534311601</v>
       </c>
       <c r="D8" t="n">
         <v>0.6835459102352718</v>
@@ -676,7 +676,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.847937106985994</v>
+        <v>0.8479371069859939</v>
       </c>
       <c r="D11" t="n">
         <v>0.718997337403777</v>
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.5864842158762826</v>
+        <v>0.5864842158762825</v>
       </c>
       <c r="D12" t="n">
         <v>0.343963735472018</v>
@@ -716,7 +716,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.9603599193579311</v>
+        <v>0.960359919357931</v>
       </c>
       <c r="D13" t="n">
         <v>0.9222911747091719</v>
@@ -736,7 +736,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.9283979000249188</v>
+        <v>0.928397900024919</v>
       </c>
       <c r="D14" t="n">
         <v>0.8619226607706796</v>
@@ -776,7 +776,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.9534990600917086</v>
+        <v>0.9534990600917087</v>
       </c>
       <c r="D16" t="n">
         <v>0.9091604575957724</v>
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.836453879411766</v>
+        <v>0.8364538794117657</v>
       </c>
       <c r="D17" t="n">
         <v>0.6996550923829929</v>
@@ -836,7 +836,7 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>0.654466075531047</v>
+        <v>0.6544660755310471</v>
       </c>
       <c r="D19" t="n">
         <v>0.4283258440210105</v>
@@ -860,7 +860,7 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>0.7831004540434385</v>
+        <v>0.7831004540434383</v>
       </c>
       <c r="D20" t="n">
         <v>0.6132463211230395</v>
@@ -880,7 +880,7 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0.8328229197303164</v>
+        <v>0.8328229197303163</v>
       </c>
       <c r="D21" t="n">
         <v>0.6935940156281288</v>
@@ -920,7 +920,7 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0.7223670410701926</v>
+        <v>0.7223670410701925</v>
       </c>
       <c r="D23" t="n">
         <v>0.5218141420245054</v>
@@ -940,7 +940,7 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0.9655417561018516</v>
+        <v>0.9655417561018517</v>
       </c>
       <c r="D24" t="n">
         <v>0.9322708827762471</v>
@@ -980,7 +980,7 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0.9211631541988834</v>
+        <v>0.9211631541988835</v>
       </c>
       <c r="D26" t="n">
         <v>0.8485415566536358</v>
@@ -1000,7 +1000,7 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0.9715253083910477</v>
+        <v>0.9715253083910476</v>
       </c>
       <c r="D27" t="n">
         <v>0.9438614248443202</v>
@@ -1044,7 +1044,7 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>-0.7659541940933855</v>
+        <v>-0.7659541940933854</v>
       </c>
       <c r="D29" t="n">
         <v>0.5866858274492478</v>
@@ -1064,7 +1064,7 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>-0.8154450246576395</v>
+        <v>-0.8154450246576396</v>
       </c>
       <c r="D30" t="n">
         <v>0.6649505882388982</v>
@@ -1084,7 +1084,7 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>-0.9301079481952631</v>
+        <v>-0.9301079481952633</v>
       </c>
       <c r="D31" t="n">
         <v>0.8651007952960023</v>
@@ -1104,7 +1104,7 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>-0.7269476831258233</v>
+        <v>-0.7269476831258236</v>
       </c>
       <c r="D32" t="n">
         <v>0.5284529340020028</v>
@@ -1124,7 +1124,7 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>-0.9531665519011623</v>
+        <v>-0.9531665519011625</v>
       </c>
       <c r="D33" t="n">
         <v>0.9085264756631513</v>
@@ -1144,7 +1144,7 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>-0.8881961406142547</v>
+        <v>-0.8881961406142549</v>
       </c>
       <c r="D34" t="n">
         <v>0.7888923842020569</v>
@@ -1164,7 +1164,7 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>-0.946556733802099</v>
+        <v>-0.9465567338020994</v>
       </c>
       <c r="D35" t="n">
         <v>0.895969650306098</v>
@@ -1204,7 +1204,7 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>-0.3542897645768296</v>
+        <v>-0.3542897645768299</v>
       </c>
       <c r="D37" t="n">
         <v>0.1255212372839055</v>
@@ -1248,7 +1248,7 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>-0.2123089090273886</v>
+        <v>-0.2123089090273885</v>
       </c>
       <c r="D39" t="n">
         <v>0.04507507285239994</v>
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>0.5307198719503412</v>
+        <v>0.5307198719503411</v>
       </c>
       <c r="D41" t="n">
         <v>0.2816635824829865</v>
@@ -1308,7 +1308,7 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>0.03054427635912031</v>
+        <v>0.03054427635912027</v>
       </c>
       <c r="D42" t="n">
         <v>0.0009329528183023183</v>
@@ -1348,7 +1348,7 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>0.03498499793440618</v>
+        <v>0.0349849979344061</v>
       </c>
       <c r="D44" t="n">
         <v>0.001223950080470401</v>
@@ -1368,7 +1368,7 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>-0.0187305995892505</v>
+        <v>-0.01873059958925055</v>
       </c>
       <c r="D45" t="n">
         <v>0.0003508353609728332</v>
@@ -1388,7 +1388,7 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>0.7419230609777557</v>
+        <v>0.741923060977756</v>
       </c>
       <c r="D46" t="n">
         <v>0.5504498284106029</v>
@@ -1412,7 +1412,7 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>0.7659541940933855</v>
+        <v>0.7659541940933854</v>
       </c>
       <c r="D47" t="n">
         <v>0.5866858274492478</v>
@@ -1432,7 +1432,7 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>0.8154450246576395</v>
+        <v>0.8154450246576396</v>
       </c>
       <c r="D48" t="n">
         <v>0.6649505882388982</v>
@@ -1452,7 +1452,7 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>0.9301079481952631</v>
+        <v>0.9301079481952633</v>
       </c>
       <c r="D49" t="n">
         <v>0.8651007952960023</v>
@@ -1472,7 +1472,7 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>0.7269476831258233</v>
+        <v>0.7269476831258236</v>
       </c>
       <c r="D50" t="n">
         <v>0.5284529340020028</v>
@@ -1492,7 +1492,7 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>0.9531665519011623</v>
+        <v>0.9531665519011625</v>
       </c>
       <c r="D51" t="n">
         <v>0.9085264756631513</v>
@@ -1512,7 +1512,7 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>0.8881961406142547</v>
+        <v>0.8881961406142549</v>
       </c>
       <c r="D52" t="n">
         <v>0.7888923842020569</v>
@@ -1532,7 +1532,7 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>0.946556733802099</v>
+        <v>0.9465567338020994</v>
       </c>
       <c r="D53" t="n">
         <v>0.895969650306098</v>
@@ -1572,7 +1572,7 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>0.3542897645768296</v>
+        <v>0.3542897645768299</v>
       </c>
       <c r="D55" t="n">
         <v>0.1255212372839055</v>
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>0.7831004554985596</v>
+        <v>0.7831004554985594</v>
       </c>
       <c r="D56" t="n">
         <v>0.6132463234020517</v>
@@ -1616,7 +1616,7 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>0.8328229228315751</v>
+        <v>0.8328229228315749</v>
       </c>
       <c r="D57" t="n">
         <v>0.6935940207937276</v>
@@ -1636,7 +1636,7 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>0.9507048001328551</v>
+        <v>0.9507048001328552</v>
       </c>
       <c r="D58" t="n">
         <v>0.9038396169956522</v>
@@ -1676,7 +1676,7 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>0.965541757330153</v>
+        <v>0.9655417573301531</v>
       </c>
       <c r="D60" t="n">
         <v>0.9322708851481999</v>
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>0.8798125120592961</v>
+        <v>0.879812512059296</v>
       </c>
       <c r="D61" t="n">
         <v>0.7740700563760891</v>
@@ -1736,7 +1736,7 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>0.9715253069540175</v>
+        <v>0.9715253069540174</v>
       </c>
       <c r="D63" t="n">
         <v>0.9438614220520979</v>
@@ -1780,7 +1780,7 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>0.8910446412890235</v>
+        <v>0.8910446412890233</v>
       </c>
       <c r="D65" t="n">
         <v>0.7939605527698842</v>
@@ -1820,7 +1820,7 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>0.9336898960597464</v>
+        <v>0.9336898960597465</v>
       </c>
       <c r="D67" t="n">
         <v>0.87177682200406</v>
@@ -1964,7 +1964,7 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>0.8830684679939582</v>
+        <v>0.883068467993958</v>
       </c>
       <c r="D74" t="n">
         <v>0.7798099191651963</v>
@@ -1984,7 +1984,7 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>0.7353012961101677</v>
+        <v>0.7353012961101678</v>
       </c>
       <c r="D75" t="n">
         <v>0.5406679960612927</v>
@@ -2004,7 +2004,7 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>0.9734144398436431</v>
+        <v>0.9734144398436432</v>
       </c>
       <c r="D76" t="n">
         <v>0.9475356716961132</v>
@@ -2024,7 +2024,7 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>0.8667390544010424</v>
+        <v>0.8667390544010422</v>
       </c>
       <c r="D77" t="n">
         <v>0.7512365884240129</v>
@@ -2044,7 +2044,7 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>0.9400226081383012</v>
+        <v>0.9400226081383013</v>
       </c>
       <c r="D78" t="n">
         <v>0.8836425038111337</v>
@@ -2104,7 +2104,7 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>0.9408820618523031</v>
+        <v>0.9408820618523032</v>
       </c>
       <c r="D81" t="n">
         <v>0.8852590543154415</v>
@@ -2124,7 +2124,7 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>0.599443607055184</v>
+        <v>0.5994436070551841</v>
       </c>
       <c r="D82" t="n">
         <v>0.3593326380393298</v>
@@ -2148,7 +2148,7 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>0.8830684679939582</v>
+        <v>0.883068467993958</v>
       </c>
       <c r="D83" t="n">
         <v>0.7798099191651963</v>
@@ -2168,7 +2168,7 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>0.7353012961101677</v>
+        <v>0.7353012961101678</v>
       </c>
       <c r="D84" t="n">
         <v>0.5406679960612927</v>
@@ -2188,7 +2188,7 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>0.9734144398436431</v>
+        <v>0.9734144398436432</v>
       </c>
       <c r="D85" t="n">
         <v>0.9475356716961132</v>
@@ -2208,7 +2208,7 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>0.8667390544010424</v>
+        <v>0.8667390544010422</v>
       </c>
       <c r="D86" t="n">
         <v>0.7512365884240129</v>
@@ -2228,7 +2228,7 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>0.9400226081383012</v>
+        <v>0.9400226081383013</v>
       </c>
       <c r="D87" t="n">
         <v>0.8836425038111337</v>
@@ -2288,7 +2288,7 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>0.9408820618523031</v>
+        <v>0.9408820618523032</v>
       </c>
       <c r="D90" t="n">
         <v>0.8852590543154415</v>
@@ -2308,7 +2308,7 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>0.599443607055184</v>
+        <v>0.5994436070551841</v>
       </c>
       <c r="D91" t="n">
         <v>0.3593326380393298</v>
@@ -2332,7 +2332,7 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>0.8408024046499833</v>
+        <v>0.8408024046499831</v>
       </c>
       <c r="D92" t="n">
         <v>0.7069486836651941</v>
@@ -2352,7 +2352,7 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>0.4571257333258042</v>
+        <v>0.4571257333258041</v>
       </c>
       <c r="D93" t="n">
         <v>0.2089639360686542</v>
@@ -2392,7 +2392,7 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>0.9197692337108722</v>
+        <v>0.919769233710872</v>
       </c>
       <c r="D95" t="n">
         <v>0.8459754432810854</v>
@@ -2432,7 +2432,7 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>0.9038505732999682</v>
+        <v>0.9038505732999681</v>
       </c>
       <c r="D97" t="n">
         <v>0.8169458588546812</v>
@@ -2452,7 +2452,7 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>0.7196028227310023</v>
+        <v>0.7196028227310024</v>
       </c>
       <c r="D98" t="n">
         <v>0.5178282224824263</v>
@@ -2506,17 +2506,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A47:A55"/>
+    <mergeCell ref="A65:A73"/>
+    <mergeCell ref="A38:A46"/>
+    <mergeCell ref="A74:A82"/>
+    <mergeCell ref="A83:A91"/>
+    <mergeCell ref="A56:A64"/>
+    <mergeCell ref="A20:A28"/>
+    <mergeCell ref="A92:A100"/>
+    <mergeCell ref="A29:A37"/>
     <mergeCell ref="A2:A10"/>
     <mergeCell ref="A11:A19"/>
-    <mergeCell ref="A20:A28"/>
-    <mergeCell ref="A29:A37"/>
-    <mergeCell ref="A38:A46"/>
-    <mergeCell ref="A47:A55"/>
-    <mergeCell ref="A56:A64"/>
-    <mergeCell ref="A65:A73"/>
-    <mergeCell ref="A74:A82"/>
-    <mergeCell ref="A83:A91"/>
-    <mergeCell ref="A92:A100"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -2570,7 +2570,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-0.5332482858069713</v>
+        <v>-0.5332482858069714</v>
       </c>
       <c r="D2" t="n">
         <v>0.2843537343160733</v>
@@ -2590,7 +2590,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.6467289697496152</v>
+        <v>0.6467289697496151</v>
       </c>
       <c r="D3" t="n">
         <v>0.4182583603133986</v>
@@ -2650,7 +2650,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>-0.08354264107300247</v>
+        <v>-0.08354264107300245</v>
       </c>
       <c r="D6" t="n">
         <v>0.006979372877452519</v>
@@ -2670,7 +2670,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>-0.541387980344879</v>
+        <v>-0.5413879803448791</v>
       </c>
       <c r="D7" t="n">
         <v>0.2931009452619071</v>
@@ -2690,7 +2690,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.8779752254696794</v>
+        <v>0.8779752254696795</v>
       </c>
       <c r="D8" t="n">
         <v>0.7708404965385346</v>
@@ -2754,7 +2754,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>-0.5223964559900031</v>
+        <v>-0.5223964559900033</v>
       </c>
       <c r="D11" t="n">
         <v>0.2728980572309153</v>
@@ -2774,7 +2774,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.6298036702505182</v>
+        <v>0.6298036702505183</v>
       </c>
       <c r="D12" t="n">
         <v>0.3966526630610233</v>
@@ -2814,7 +2814,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>-0.1326993197695652</v>
+        <v>-0.1326993197695653</v>
       </c>
       <c r="D14" t="n">
         <v>0.01760910946730532</v>
@@ -2834,7 +2834,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>-0.08540308898319034</v>
+        <v>-0.08540308898319035</v>
       </c>
       <c r="D15" t="n">
         <v>0.007293687607870727</v>
@@ -2854,7 +2854,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>-0.5245444598692487</v>
+        <v>-0.5245444598692489</v>
       </c>
       <c r="D16" t="n">
         <v>0.2751468903795219</v>
@@ -2874,7 +2874,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.8668941672621555</v>
+        <v>0.8668941672621556</v>
       </c>
       <c r="D17" t="n">
         <v>0.7515054972331463</v>
@@ -2894,7 +2894,7 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>-0.2793550069410551</v>
+        <v>-0.2793550069410553</v>
       </c>
       <c r="D18" t="n">
         <v>0.078039219903037</v>
@@ -2958,7 +2958,7 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0.8191122674926872</v>
+        <v>0.8191122674926871</v>
       </c>
       <c r="D21" t="n">
         <v>0.6709449067570114</v>
@@ -2998,7 +2998,7 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0.8334674320761796</v>
+        <v>0.8334674320761795</v>
       </c>
       <c r="D23" t="n">
         <v>0.694667960331661</v>
@@ -3058,7 +3058,7 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0.701772564195252</v>
+        <v>0.7017725641952521</v>
       </c>
       <c r="D26" t="n">
         <v>0.4924847318571793</v>
@@ -3098,7 +3098,7 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0.9774156112075632</v>
+        <v>0.977415611207563</v>
       </c>
       <c r="D28" t="n">
         <v>0.9553412770322542</v>
@@ -3142,7 +3142,7 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>-0.7926271474232048</v>
+        <v>-0.7926271474232046</v>
       </c>
       <c r="D30" t="n">
         <v>0.6282577948322469</v>
@@ -3162,7 +3162,7 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>-0.9644717928743644</v>
+        <v>-0.9644717928743641</v>
       </c>
       <c r="D31" t="n">
         <v>0.930205839250291</v>
@@ -3182,7 +3182,7 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>-0.8554398713129931</v>
+        <v>-0.8554398713129929</v>
       </c>
       <c r="D32" t="n">
         <v>0.7317773734319902</v>
@@ -3202,7 +3202,7 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>-0.8591749112720167</v>
+        <v>-0.8591749112720164</v>
       </c>
       <c r="D33" t="n">
         <v>0.7381815281592778</v>
@@ -3222,7 +3222,7 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>-0.5820400543987283</v>
+        <v>-0.5820400543987284</v>
       </c>
       <c r="D34" t="n">
         <v>0.3387706249244747</v>
@@ -3242,7 +3242,7 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>-0.6707159203726024</v>
+        <v>-0.6707159203726023</v>
       </c>
       <c r="D35" t="n">
         <v>0.4498598458412673</v>
@@ -3262,7 +3262,7 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>-0.7794976796447812</v>
+        <v>-0.779497679644781</v>
       </c>
       <c r="D36" t="n">
         <v>0.6076166325715985</v>
@@ -3306,7 +3306,7 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>-0.9859159335343319</v>
+        <v>-0.9859159335343324</v>
       </c>
       <c r="D38" t="n">
         <v>0.9720302279968734</v>
@@ -3326,7 +3326,7 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>-0.05091033897225258</v>
+        <v>-0.05091033897225256</v>
       </c>
       <c r="D39" t="n">
         <v>0.002591862614269662</v>
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>-0.4813246701630981</v>
+        <v>-0.4813246701630982</v>
       </c>
       <c r="D40" t="n">
         <v>0.2316734381076152</v>
@@ -3366,7 +3366,7 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>-0.8219120524276786</v>
+        <v>-0.8219120524276788</v>
       </c>
       <c r="D41" t="n">
         <v>0.6755394219258795</v>
@@ -3406,7 +3406,7 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>-0.9751955262588068</v>
+        <v>-0.9751955262588072</v>
       </c>
       <c r="D43" t="n">
         <v>0.9510063144351916</v>
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>-0.9055703864127055</v>
+        <v>-0.9055703864127057</v>
       </c>
       <c r="D45" t="n">
         <v>0.8200577247476571</v>
@@ -3466,7 +3466,7 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>-0.5165377465585228</v>
+        <v>-0.5165377465585229</v>
       </c>
       <c r="D46" t="n">
         <v>0.2668112436197568</v>
@@ -3510,7 +3510,7 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>0.7926271474232048</v>
+        <v>0.7926271474232046</v>
       </c>
       <c r="D48" t="n">
         <v>0.6282577948322469</v>
@@ -3530,7 +3530,7 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>0.9644717928743644</v>
+        <v>0.9644717928743641</v>
       </c>
       <c r="D49" t="n">
         <v>0.930205839250291</v>
@@ -3550,7 +3550,7 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>0.8554398713129931</v>
+        <v>0.8554398713129929</v>
       </c>
       <c r="D50" t="n">
         <v>0.7317773734319902</v>
@@ -3570,7 +3570,7 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>0.8591749112720167</v>
+        <v>0.8591749112720164</v>
       </c>
       <c r="D51" t="n">
         <v>0.7381815281592778</v>
@@ -3590,7 +3590,7 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>0.5820400543987283</v>
+        <v>0.5820400543987284</v>
       </c>
       <c r="D52" t="n">
         <v>0.3387706249244747</v>
@@ -3610,7 +3610,7 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>0.6707159203726024</v>
+        <v>0.6707159203726023</v>
       </c>
       <c r="D53" t="n">
         <v>0.4498598458412673</v>
@@ -3630,7 +3630,7 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>0.7794976796447812</v>
+        <v>0.779497679644781</v>
       </c>
       <c r="D54" t="n">
         <v>0.6076166325715985</v>
@@ -3674,7 +3674,7 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>0.5682878689518598</v>
+        <v>0.5682878689518601</v>
       </c>
       <c r="D56" t="n">
         <v>0.3229511019978463</v>
@@ -3694,7 +3694,7 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>0.8191122710366473</v>
+        <v>0.8191122710366475</v>
       </c>
       <c r="D57" t="n">
         <v>0.6709449125628143</v>
@@ -3714,7 +3714,7 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>0.9706062703972331</v>
+        <v>0.9706062703972335</v>
       </c>
       <c r="D58" t="n">
         <v>0.9420765321344274</v>
@@ -3734,7 +3734,7 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>0.8334674294919816</v>
+        <v>0.8334674294919818</v>
       </c>
       <c r="D59" t="n">
         <v>0.6946679560239717</v>
@@ -3774,7 +3774,7 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>0.5513675903787943</v>
+        <v>0.5513675903787945</v>
       </c>
       <c r="D61" t="n">
         <v>0.3040062197201179</v>
@@ -3794,7 +3794,7 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>0.7017725677392537</v>
+        <v>0.7017725677392539</v>
       </c>
       <c r="D62" t="n">
         <v>0.4924847368313457</v>
@@ -3814,7 +3814,7 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>0.7628889959573284</v>
+        <v>0.7628889959573285</v>
       </c>
       <c r="D63" t="n">
         <v>0.5819996201527812</v>
@@ -3834,7 +3834,7 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>0.9774156119122597</v>
+        <v>0.9774156119122599</v>
       </c>
       <c r="D64" t="n">
         <v>0.9553412784098172</v>
@@ -3938,7 +3938,7 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>-0.08345943617300466</v>
+        <v>-0.08345943617300464</v>
       </c>
       <c r="D69" t="n">
         <v>0.006965477486315839</v>
@@ -3958,7 +3958,7 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>-0.5413158504905334</v>
+        <v>-0.5413158504905335</v>
       </c>
       <c r="D70" t="n">
         <v>0.2930228499922894</v>
@@ -4042,7 +4042,7 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>0.3625172005827211</v>
+        <v>0.3625172005827212</v>
       </c>
       <c r="D74" t="n">
         <v>0.1314187207183329</v>
@@ -4062,7 +4062,7 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>0.894633218336482</v>
+        <v>0.8946332183364818</v>
       </c>
       <c r="D75" t="n">
         <v>0.8003685953510915</v>
@@ -4102,7 +4102,7 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>0.6832061614045042</v>
+        <v>0.6832061614045043</v>
       </c>
       <c r="D77" t="n">
         <v>0.4667706589810774</v>
@@ -4122,7 +4122,7 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>0.7336845771825746</v>
+        <v>0.7336845771825747</v>
       </c>
       <c r="D78" t="n">
         <v>0.5382930587955734</v>
@@ -4162,7 +4162,7 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>0.8437689834721028</v>
+        <v>0.8437689834721029</v>
       </c>
       <c r="D80" t="n">
         <v>0.711946097469546</v>
@@ -4182,7 +4182,7 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>0.5995570087239407</v>
+        <v>0.5995570087239408</v>
       </c>
       <c r="D81" t="n">
         <v>0.3594686067099996</v>
@@ -4226,7 +4226,7 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>0.3625172005827211</v>
+        <v>0.3625172005827212</v>
       </c>
       <c r="D83" t="n">
         <v>0.1314187207183329</v>
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>0.894633218336482</v>
+        <v>0.8946332183364818</v>
       </c>
       <c r="D84" t="n">
         <v>0.8003685953510915</v>
@@ -4286,7 +4286,7 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>0.6832061614045042</v>
+        <v>0.6832061614045043</v>
       </c>
       <c r="D86" t="n">
         <v>0.4667706589810774</v>
@@ -4306,7 +4306,7 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>0.7336845771825746</v>
+        <v>0.7336845771825747</v>
       </c>
       <c r="D87" t="n">
         <v>0.5382930587955734</v>
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>0.8437689834721028</v>
+        <v>0.8437689834721029</v>
       </c>
       <c r="D89" t="n">
         <v>0.711946097469546</v>
@@ -4366,7 +4366,7 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>0.5995570087239407</v>
+        <v>0.5995570087239408</v>
       </c>
       <c r="D90" t="n">
         <v>0.3594686067099996</v>
@@ -4470,7 +4470,7 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>-0.6456406767255722</v>
+        <v>-0.6456406767255721</v>
       </c>
       <c r="D95" t="n">
         <v>0.4168518834426547</v>
@@ -4490,7 +4490,7 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>-0.6016476931526332</v>
+        <v>-0.6016476931526331</v>
       </c>
       <c r="D96" t="n">
         <v>0.3619799466758851</v>
@@ -4510,7 +4510,7 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>-0.898078821034213</v>
+        <v>-0.8980788210342131</v>
       </c>
       <c r="D97" t="n">
         <v>0.8065455687902021</v>
@@ -4584,17 +4584,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A47:A55"/>
+    <mergeCell ref="A65:A73"/>
+    <mergeCell ref="A38:A46"/>
+    <mergeCell ref="A74:A82"/>
+    <mergeCell ref="A83:A91"/>
+    <mergeCell ref="A56:A64"/>
+    <mergeCell ref="A20:A28"/>
+    <mergeCell ref="A92:A100"/>
+    <mergeCell ref="A29:A37"/>
     <mergeCell ref="A2:A10"/>
     <mergeCell ref="A11:A19"/>
-    <mergeCell ref="A20:A28"/>
-    <mergeCell ref="A29:A37"/>
-    <mergeCell ref="A38:A46"/>
-    <mergeCell ref="A47:A55"/>
-    <mergeCell ref="A56:A64"/>
-    <mergeCell ref="A65:A73"/>
-    <mergeCell ref="A74:A82"/>
-    <mergeCell ref="A83:A91"/>
-    <mergeCell ref="A92:A100"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -4648,7 +4648,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.9003164559511115</v>
+        <v>0.9003164559511112</v>
       </c>
       <c r="D2" t="n">
         <v>0.8105697208563696</v>
@@ -4688,7 +4688,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.8617298531346682</v>
+        <v>0.8617298531346681</v>
       </c>
       <c r="D4" t="n">
         <v>0.7425783397834974</v>
@@ -4748,7 +4748,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.8688821685057049</v>
+        <v>0.8688821685057045</v>
       </c>
       <c r="D7" t="n">
         <v>0.7549562227471761</v>
@@ -4788,7 +4788,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.7953108426195057</v>
+        <v>0.7953108426195055</v>
       </c>
       <c r="D9" t="n">
         <v>0.6325193363881479</v>
@@ -4808,7 +4808,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.9213744400037824</v>
+        <v>0.9213744400037825</v>
       </c>
       <c r="D10" t="n">
         <v>0.8489308586922839</v>
@@ -4872,7 +4872,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.8829368599033875</v>
+        <v>0.8829368599033873</v>
       </c>
       <c r="D13" t="n">
         <v>0.7795774985760544</v>
@@ -4892,7 +4892,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.7668152355258526</v>
+        <v>0.7668152355258525</v>
       </c>
       <c r="D14" t="n">
         <v>0.5880056054345688</v>
@@ -4912,7 +4912,7 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>0.9457257056482706</v>
+        <v>0.9457257056482705</v>
       </c>
       <c r="D15" t="n">
         <v>0.8943971103239192</v>
@@ -4932,7 +4932,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.868117778844214</v>
+        <v>0.8681177788442137</v>
       </c>
       <c r="D16" t="n">
         <v>0.7536284779454118</v>
@@ -4972,7 +4972,7 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>0.7891095797666527</v>
+        <v>0.7891095797666526</v>
       </c>
       <c r="D18" t="n">
         <v>0.6226939288795029</v>
@@ -5036,7 +5036,7 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>0.704851907493555</v>
+        <v>0.7048519074935549</v>
       </c>
       <c r="D21" t="n">
         <v>0.4968162114973027</v>
@@ -5056,7 +5056,7 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0.8619908076224678</v>
+        <v>0.8619908076224677</v>
       </c>
       <c r="D22" t="n">
         <v>0.7430281524256341</v>
@@ -5076,7 +5076,7 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0.7594170690109563</v>
+        <v>0.7594170690109562</v>
       </c>
       <c r="D23" t="n">
         <v>0.5767142847051916</v>
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0.9439762662191165</v>
+        <v>0.9439762662191163</v>
       </c>
       <c r="D24" t="n">
         <v>0.8910911911849838</v>
@@ -5116,7 +5116,7 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0.8810310466031895</v>
+        <v>0.8810310466031894</v>
       </c>
       <c r="D25" t="n">
         <v>0.7762157050787115</v>
@@ -5156,7 +5156,7 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0.8125087459531873</v>
+        <v>0.8125087459531872</v>
       </c>
       <c r="D27" t="n">
         <v>0.660170462250421</v>
@@ -5280,7 +5280,7 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>-0.9189903277918248</v>
+        <v>-0.9189903277918249</v>
       </c>
       <c r="D33" t="n">
         <v>0.8445432225749258</v>
@@ -5340,7 +5340,7 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>-0.8165811655886114</v>
+        <v>-0.8165811655886113</v>
       </c>
       <c r="D36" t="n">
         <v>0.6668047999940553</v>
@@ -5360,7 +5360,7 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>-0.9396027053171692</v>
+        <v>-0.9396027053171693</v>
       </c>
       <c r="D37" t="n">
         <v>0.8828532438393433</v>
@@ -5404,7 +5404,7 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>0.7250016922000413</v>
+        <v>0.7250016922000411</v>
       </c>
       <c r="D39" t="n">
         <v>0.5256274536929231</v>
@@ -5424,7 +5424,7 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>0.7408708168505398</v>
+        <v>0.7408708168505393</v>
       </c>
       <c r="D40" t="n">
         <v>0.5488895672607857</v>
@@ -5464,7 +5464,7 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>0.6624723749410022</v>
+        <v>0.6624723749410021</v>
       </c>
       <c r="D42" t="n">
         <v>0.4388696475599718</v>
@@ -5484,7 +5484,7 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>0.5661303622043407</v>
+        <v>0.5661303622043404</v>
       </c>
       <c r="D43" t="n">
         <v>0.3205035870096178</v>
@@ -5504,7 +5504,7 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>-0.2186750498502176</v>
+        <v>-0.2186750498502175</v>
       </c>
       <c r="D44" t="n">
         <v>0.04781877742699514</v>
@@ -5544,7 +5544,7 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>0.566504901210074</v>
+        <v>0.5665049012100739</v>
       </c>
       <c r="D46" t="n">
         <v>0.3209278030950357</v>
@@ -5648,7 +5648,7 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>0.9189903277918248</v>
+        <v>0.9189903277918249</v>
       </c>
       <c r="D51" t="n">
         <v>0.8445432225749258</v>
@@ -5708,7 +5708,7 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>0.8165811655886114</v>
+        <v>0.8165811655886113</v>
       </c>
       <c r="D54" t="n">
         <v>0.6668047999940553</v>
@@ -5728,7 +5728,7 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>0.9396027053171692</v>
+        <v>0.9396027053171693</v>
       </c>
       <c r="D55" t="n">
         <v>0.8828532438393433</v>
@@ -5792,7 +5792,7 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>0.8619908118334612</v>
+        <v>0.861990811833461</v>
       </c>
       <c r="D58" t="n">
         <v>0.7430281596853094</v>
@@ -5832,7 +5832,7 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>0.9439762700869108</v>
+        <v>0.9439762700869109</v>
       </c>
       <c r="D60" t="n">
         <v>0.8910911984871968</v>
@@ -5852,7 +5852,7 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>0.8810310516702061</v>
+        <v>0.881031051670206</v>
       </c>
       <c r="D61" t="n">
         <v>0.7762157140071096</v>
@@ -5892,7 +5892,7 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>0.8125087523795904</v>
+        <v>0.8125087523795905</v>
       </c>
       <c r="D63" t="n">
         <v>0.6601704726934388</v>
@@ -5912,7 +5912,7 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>0.9423307332720777</v>
+        <v>0.9423307332720778</v>
       </c>
       <c r="D64" t="n">
         <v>0.8879872108690922</v>
@@ -5936,7 +5936,7 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>0.9003382702607731</v>
+        <v>0.900338270260773</v>
       </c>
       <c r="D65" t="n">
         <v>0.8106090008961604</v>
@@ -5976,7 +5976,7 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>0.8617344586443318</v>
+        <v>0.8617344586443317</v>
       </c>
       <c r="D67" t="n">
         <v>0.7425862772150397</v>
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>0.7849153453530999</v>
+        <v>0.7849153453530998</v>
       </c>
       <c r="D68" t="n">
         <v>0.6160920993707762</v>
@@ -6036,7 +6036,7 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>0.8688957178509327</v>
+        <v>0.8688957178509324</v>
       </c>
       <c r="D70" t="n">
         <v>0.7549797684996874</v>
@@ -6076,7 +6076,7 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>0.7953278894906557</v>
+        <v>0.7953278894906559</v>
       </c>
       <c r="D72" t="n">
         <v>0.6325464518016606</v>
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>0.9213899663653021</v>
+        <v>0.9213899663653022</v>
       </c>
       <c r="D73" t="n">
         <v>0.8489594701186526</v>
@@ -6140,7 +6140,7 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>0.5832943920161552</v>
+        <v>0.5832943920161553</v>
       </c>
       <c r="D75" t="n">
         <v>0.340232347757496</v>
@@ -6160,7 +6160,7 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>0.8847817000321078</v>
+        <v>0.8847817000321077</v>
       </c>
       <c r="D76" t="n">
         <v>0.7828386567117067</v>
@@ -6180,7 +6180,7 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>0.835928512822348</v>
+        <v>0.8359285128223483</v>
       </c>
       <c r="D77" t="n">
         <v>0.6987764785493829</v>
@@ -6200,7 +6200,7 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>0.9162956953195166</v>
+        <v>0.9162956953195167</v>
       </c>
       <c r="D78" t="n">
         <v>0.8395978012610764</v>
@@ -6240,7 +6240,7 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>-0.3274337856510701</v>
+        <v>-0.32743378565107</v>
       </c>
       <c r="D80" t="n">
         <v>0.1072128839857908</v>
@@ -6280,7 +6280,7 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>0.9375142347360464</v>
+        <v>0.9375142347360466</v>
       </c>
       <c r="D82" t="n">
         <v>0.878932940332715</v>
@@ -6324,7 +6324,7 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>0.5832943920161552</v>
+        <v>0.5832943920161553</v>
       </c>
       <c r="D84" t="n">
         <v>0.340232347757496</v>
@@ -6344,7 +6344,7 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>0.8847817000321078</v>
+        <v>0.8847817000321077</v>
       </c>
       <c r="D85" t="n">
         <v>0.7828386567117067</v>
@@ -6364,7 +6364,7 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>0.835928512822348</v>
+        <v>0.8359285128223483</v>
       </c>
       <c r="D86" t="n">
         <v>0.6987764785493829</v>
@@ -6384,7 +6384,7 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>0.9162956953195166</v>
+        <v>0.9162956953195167</v>
       </c>
       <c r="D87" t="n">
         <v>0.8395978012610764</v>
@@ -6424,7 +6424,7 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>-0.3274337856510701</v>
+        <v>-0.32743378565107</v>
       </c>
       <c r="D89" t="n">
         <v>0.1072128839857908</v>
@@ -6464,7 +6464,7 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>0.9375142347360464</v>
+        <v>0.9375142347360466</v>
       </c>
       <c r="D91" t="n">
         <v>0.878932940332715</v>
@@ -6488,7 +6488,7 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>0.9043579223735974</v>
+        <v>0.9043579223735977</v>
       </c>
       <c r="D92" t="n">
         <v>0.8178632517598897</v>
@@ -6508,7 +6508,7 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>0.8107076629576471</v>
+        <v>0.8107076629576472</v>
       </c>
       <c r="D93" t="n">
         <v>0.6572469147782495</v>
@@ -6528,7 +6528,7 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>0.8057288196330903</v>
+        <v>0.8057288196330902</v>
       </c>
       <c r="D94" t="n">
         <v>0.6491989307873329</v>
@@ -6548,7 +6548,7 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>0.6642591485015436</v>
+        <v>0.6642591485015437</v>
       </c>
       <c r="D95" t="n">
         <v>0.4412402163679957</v>
@@ -6568,7 +6568,7 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>0.8892300279432651</v>
+        <v>0.8892300279432652</v>
       </c>
       <c r="D96" t="n">
         <v>0.7907300425959799</v>
@@ -6608,7 +6608,7 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>-0.6268076573917616</v>
+        <v>-0.6268076573917617</v>
       </c>
       <c r="D98" t="n">
         <v>0.3928878393649478</v>
@@ -6628,7 +6628,7 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>0.6959660210275461</v>
+        <v>0.6959660210275463</v>
       </c>
       <c r="D99" t="n">
         <v>0.4843687024249149</v>
@@ -6648,7 +6648,7 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>0.8649963988921663</v>
+        <v>0.8649963988921665</v>
       </c>
       <c r="D100" t="n">
         <v>0.7482187700964158</v>
@@ -6662,17 +6662,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A47:A55"/>
+    <mergeCell ref="A65:A73"/>
+    <mergeCell ref="A38:A46"/>
+    <mergeCell ref="A74:A82"/>
+    <mergeCell ref="A83:A91"/>
+    <mergeCell ref="A56:A64"/>
+    <mergeCell ref="A20:A28"/>
+    <mergeCell ref="A92:A100"/>
+    <mergeCell ref="A29:A37"/>
     <mergeCell ref="A2:A10"/>
     <mergeCell ref="A11:A19"/>
-    <mergeCell ref="A20:A28"/>
-    <mergeCell ref="A29:A37"/>
-    <mergeCell ref="A38:A46"/>
-    <mergeCell ref="A47:A55"/>
-    <mergeCell ref="A56:A64"/>
-    <mergeCell ref="A65:A73"/>
-    <mergeCell ref="A74:A82"/>
-    <mergeCell ref="A83:A91"/>
-    <mergeCell ref="A92:A100"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -6726,7 +6726,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-0.694846490972624</v>
+        <v>-0.6948464909726242</v>
       </c>
       <c r="D2" t="n">
         <v>0.482811646016969</v>
@@ -6826,7 +6826,7 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>-0.5639575841267017</v>
+        <v>-0.5639575841267018</v>
       </c>
       <c r="D7" t="n">
         <v>0.318048156694026</v>
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.2498097795373984</v>
+        <v>0.2498097795373985</v>
       </c>
       <c r="D8" t="n">
         <v>0.06240492595252362</v>
@@ -6910,7 +6910,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>-0.7103978652711144</v>
+        <v>-0.7103978652711145</v>
       </c>
       <c r="D11" t="n">
         <v>0.5046651269817564</v>
@@ -6950,7 +6950,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>-0.1929569090022842</v>
+        <v>-0.1929569090022843</v>
       </c>
       <c r="D13" t="n">
         <v>0.03723236873171581</v>
@@ -6970,7 +6970,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>-0.5058664911632351</v>
+        <v>-0.5058664911632352</v>
       </c>
       <c r="D14" t="n">
         <v>0.2559009068818033</v>
@@ -7030,7 +7030,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.1750322548966865</v>
+        <v>0.1750322548966866</v>
       </c>
       <c r="D17" t="n">
         <v>0.03063629025421866</v>
@@ -7050,7 +7050,7 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>-0.4919471439793922</v>
+        <v>-0.4919471439793923</v>
       </c>
       <c r="D18" t="n">
         <v>0.2420119924694809</v>
@@ -7094,7 +7094,7 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>-0.5539464828911734</v>
+        <v>-0.5539464828911735</v>
       </c>
       <c r="D20" t="n">
         <v>0.3068567059075012</v>
@@ -7134,7 +7134,7 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0.03921224330446124</v>
+        <v>0.03921224330446119</v>
       </c>
       <c r="D22" t="n">
         <v>0.001537600024968262</v>
@@ -7174,7 +7174,7 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>-0.2135318041904737</v>
+        <v>-0.2135318041904738</v>
       </c>
       <c r="D24" t="n">
         <v>0.04559583140083887</v>
@@ -7194,7 +7194,7 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>-0.5216585437321701</v>
+        <v>-0.5216585437321702</v>
       </c>
       <c r="D25" t="n">
         <v>0.2721276362487686</v>
@@ -7214,7 +7214,7 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0.3255974264740291</v>
+        <v>0.3255974264740292</v>
       </c>
       <c r="D26" t="n">
         <v>0.1060136841265108</v>
@@ -7234,7 +7234,7 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>-0.3262745374231267</v>
+        <v>-0.3262745374231268</v>
       </c>
       <c r="D27" t="n">
         <v>0.1064550737706753</v>
@@ -7254,7 +7254,7 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>-0.5835037043610419</v>
+        <v>-0.583503704361042</v>
       </c>
       <c r="D28" t="n">
         <v>0.3404765730030582</v>
@@ -7318,7 +7318,7 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>-0.07928700733803334</v>
+        <v>-0.07928700733803337</v>
       </c>
       <c r="D31" t="n">
         <v>0.006286429532621356</v>
@@ -7358,7 +7358,7 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>0.1803794609073009</v>
+        <v>0.180379460907301</v>
       </c>
       <c r="D33" t="n">
         <v>0.03253674991720854</v>
@@ -7378,7 +7378,7 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>0.521371565901498</v>
+        <v>0.5213715659014981</v>
       </c>
       <c r="D34" t="n">
         <v>0.2718283097305801</v>
@@ -7398,7 +7398,7 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>-0.3604609099133232</v>
+        <v>-0.3604609099133235</v>
       </c>
       <c r="D35" t="n">
         <v>0.129932067575541</v>
@@ -7418,7 +7418,7 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>0.2956452904216993</v>
+        <v>0.2956452904216992</v>
       </c>
       <c r="D36" t="n">
         <v>0.08740613774853091</v>
@@ -7438,7 +7438,7 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>0.5286746848650843</v>
+        <v>0.5286746848650841</v>
       </c>
       <c r="D37" t="n">
         <v>0.2794969224171961</v>
@@ -7462,7 +7462,7 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>-0.8540439834651548</v>
+        <v>-0.8540439834651551</v>
       </c>
       <c r="D38" t="n">
         <v>0.7293911256930296</v>
@@ -7502,7 +7502,7 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>-0.421633163872889</v>
+        <v>-0.4216331638728891</v>
       </c>
       <c r="D40" t="n">
         <v>0.1777745248774625</v>
@@ -7522,7 +7522,7 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>-0.6364792662940446</v>
+        <v>-0.6364792662940447</v>
       </c>
       <c r="D41" t="n">
         <v>0.4051058564222054</v>
@@ -7542,7 +7542,7 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>-0.6029717574014725</v>
+        <v>-0.6029717574014726</v>
       </c>
       <c r="D42" t="n">
         <v>0.3635749402238201</v>
@@ -7562,7 +7562,7 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>-0.6502340388483511</v>
+        <v>-0.6502340388483512</v>
       </c>
       <c r="D43" t="n">
         <v>0.4228043052770389</v>
@@ -7582,7 +7582,7 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>0.2317476927826654</v>
+        <v>0.2317476927826655</v>
       </c>
       <c r="D44" t="n">
         <v>0.05370699311008865</v>
@@ -7602,7 +7602,7 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>-0.67932615072083</v>
+        <v>-0.6793261507208301</v>
       </c>
       <c r="D45" t="n">
         <v>0.4614840190531799</v>
@@ -7622,7 +7622,7 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>-0.8540984161744771</v>
+        <v>-0.8540984161744772</v>
       </c>
       <c r="D46" t="n">
         <v>0.7294841045117505</v>
@@ -7686,7 +7686,7 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>0.07928700733803334</v>
+        <v>0.07928700733803337</v>
       </c>
       <c r="D49" t="n">
         <v>0.006286429532621356</v>
@@ -7726,7 +7726,7 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>-0.1803794609073009</v>
+        <v>-0.180379460907301</v>
       </c>
       <c r="D51" t="n">
         <v>0.03253674991720854</v>
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>-0.521371565901498</v>
+        <v>-0.5213715659014981</v>
       </c>
       <c r="D52" t="n">
         <v>0.2718283097305801</v>
@@ -7766,7 +7766,7 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>0.3604609099133232</v>
+        <v>0.3604609099133235</v>
       </c>
       <c r="D53" t="n">
         <v>0.129932067575541</v>
@@ -7786,7 +7786,7 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>-0.2956452904216993</v>
+        <v>-0.2956452904216992</v>
       </c>
       <c r="D54" t="n">
         <v>0.08740613774853091</v>
@@ -7806,7 +7806,7 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>-0.5286746848650843</v>
+        <v>-0.5286746848650841</v>
       </c>
       <c r="D55" t="n">
         <v>0.2794969224171961</v>
@@ -7830,7 +7830,7 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>-0.5539464379551214</v>
+        <v>-0.5539464379551216</v>
       </c>
       <c r="D56" t="n">
         <v>0.3068566561231672</v>
@@ -7850,7 +7850,7 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>0.4913186622140542</v>
+        <v>0.4913186622140543</v>
       </c>
       <c r="D57" t="n">
         <v>0.2413940278398079</v>
@@ -7870,7 +7870,7 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>0.03921229491792208</v>
+        <v>0.03921229491792211</v>
       </c>
       <c r="D58" t="n">
         <v>0.001537604072730099</v>
@@ -7950,7 +7950,7 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>0.3255973475304324</v>
+        <v>0.3255973475304325</v>
       </c>
       <c r="D62" t="n">
         <v>0.1060136327188532</v>
@@ -7970,7 +7970,7 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>-0.3262744788206722</v>
+        <v>-0.3262744788206721</v>
       </c>
       <c r="D63" t="n">
         <v>0.1064550355297013</v>
@@ -7990,7 +7990,7 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>-0.5835037270804631</v>
+        <v>-0.5835037270804629</v>
       </c>
       <c r="D64" t="n">
         <v>0.3404765995167914</v>
@@ -8014,7 +8014,7 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>-0.694722675222096</v>
+        <v>-0.6947226752220961</v>
       </c>
       <c r="D65" t="n">
         <v>0.482639595467746</v>
@@ -8134,7 +8134,7 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>0.2497706744871551</v>
+        <v>0.2497706744871553</v>
       </c>
       <c r="D71" t="n">
         <v>0.06238538983376841</v>
@@ -8198,7 +8198,7 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>-0.7732168586280483</v>
+        <v>-0.7732168586280485</v>
       </c>
       <c r="D74" t="n">
         <v>0.5978643104666277</v>
@@ -8318,7 +8318,7 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>0.5662003991070312</v>
+        <v>0.5662003991070315</v>
       </c>
       <c r="D80" t="n">
         <v>0.3205828919489614</v>
@@ -8358,7 +8358,7 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>-0.5577312244501048</v>
+        <v>-0.5577312244501049</v>
       </c>
       <c r="D82" t="n">
         <v>0.3110641187266132</v>
@@ -8382,7 +8382,7 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>-0.7732168586280483</v>
+        <v>-0.7732168586280485</v>
       </c>
       <c r="D83" t="n">
         <v>0.5978643104666277</v>
@@ -8502,7 +8502,7 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>0.5662003991070312</v>
+        <v>0.5662003991070315</v>
       </c>
       <c r="D89" t="n">
         <v>0.3205828919489614</v>
@@ -8542,7 +8542,7 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>-0.5577312244501048</v>
+        <v>-0.5577312244501049</v>
       </c>
       <c r="D91" t="n">
         <v>0.3110641187266132</v>
@@ -8686,7 +8686,7 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>-0.06765309211498938</v>
+        <v>-0.06765309211498929</v>
       </c>
       <c r="D98" t="n">
         <v>0.004576940872719232</v>
@@ -8706,7 +8706,7 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>-0.3237824023725569</v>
+        <v>-0.323782402372557</v>
       </c>
       <c r="D99" t="n">
         <v>0.1048350440861444</v>
@@ -8726,7 +8726,7 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>-0.8559294522964911</v>
+        <v>-0.8559294522964909</v>
       </c>
       <c r="D100" t="n">
         <v>0.7326152273085709</v>
@@ -8740,17 +8740,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A47:A55"/>
+    <mergeCell ref="A65:A73"/>
+    <mergeCell ref="A38:A46"/>
+    <mergeCell ref="A74:A82"/>
+    <mergeCell ref="A83:A91"/>
+    <mergeCell ref="A56:A64"/>
+    <mergeCell ref="A20:A28"/>
+    <mergeCell ref="A92:A100"/>
+    <mergeCell ref="A29:A37"/>
     <mergeCell ref="A2:A10"/>
     <mergeCell ref="A11:A19"/>
-    <mergeCell ref="A20:A28"/>
-    <mergeCell ref="A29:A37"/>
-    <mergeCell ref="A38:A46"/>
-    <mergeCell ref="A47:A55"/>
-    <mergeCell ref="A56:A64"/>
-    <mergeCell ref="A65:A73"/>
-    <mergeCell ref="A74:A82"/>
-    <mergeCell ref="A83:A91"/>
-    <mergeCell ref="A92:A100"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -8804,7 +8804,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.8041647108444312</v>
+        <v>0.8041647108444313</v>
       </c>
       <c r="D2" t="n">
         <v>0.6466808821675074</v>
@@ -8824,7 +8824,7 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.1645447221533792</v>
+        <v>0.1645447221533791</v>
       </c>
       <c r="D3" t="n">
         <v>0.02707496558853273</v>
@@ -8844,7 +8844,7 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.6911917178397744</v>
+        <v>0.6911917178397746</v>
       </c>
       <c r="D4" t="n">
         <v>0.4777459908102984</v>
@@ -8884,7 +8884,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.4916877706408347</v>
+        <v>0.4916877706408346</v>
       </c>
       <c r="D6" t="n">
         <v>0.241756863797754</v>
@@ -8924,7 +8924,7 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.9580406681667424</v>
+        <v>0.958040668166742</v>
       </c>
       <c r="D8" t="n">
         <v>0.917841921861378</v>
@@ -8944,7 +8944,7 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.8409433679812531</v>
+        <v>0.8409433679812532</v>
       </c>
       <c r="D9" t="n">
         <v>0.7071857481516529</v>
@@ -8964,7 +8964,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.851072530365637</v>
+        <v>0.8510725303656371</v>
       </c>
       <c r="D10" t="n">
         <v>0.7243244519429681</v>
@@ -8988,7 +8988,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.7763146593539871</v>
+        <v>0.776314659353987</v>
       </c>
       <c r="D11" t="n">
         <v>0.6026644503278967</v>
@@ -9008,7 +9008,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.003025926032022286</v>
+        <v>0.00302592603202223</v>
       </c>
       <c r="D12" t="n">
         <v>9.156228351269748e-06</v>
@@ -9048,7 +9048,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>0.9608208047823863</v>
+        <v>0.9608208047823862</v>
       </c>
       <c r="D14" t="n">
         <v>0.9231766189026722</v>
@@ -9088,7 +9088,7 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>0.8112989048365671</v>
+        <v>0.8112989048365672</v>
       </c>
       <c r="D16" t="n">
         <v>0.6582059129890133</v>
@@ -9108,7 +9108,7 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.8736680681677046</v>
+        <v>0.8736680681677044</v>
       </c>
       <c r="D17" t="n">
         <v>0.7632958933358885</v>
@@ -9212,7 +9212,7 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>0.7272102021212046</v>
+        <v>0.7272102021212047</v>
       </c>
       <c r="D22" t="n">
         <v>0.5288346780691632</v>
@@ -9232,7 +9232,7 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>0.8960497302503311</v>
+        <v>0.896049730250331</v>
       </c>
       <c r="D23" t="n">
         <v>0.8029051190816909</v>
@@ -9272,7 +9272,7 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>0.7907177298068655</v>
+        <v>0.7907177298068656</v>
       </c>
       <c r="D25" t="n">
         <v>0.6252345282309233</v>
@@ -9292,7 +9292,7 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>0.9036288808697834</v>
+        <v>0.9036288808697832</v>
       </c>
       <c r="D26" t="n">
         <v>0.8165451543419768</v>
@@ -9312,7 +9312,7 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>0.8898181286175439</v>
+        <v>0.8898181286175441</v>
       </c>
       <c r="D27" t="n">
         <v>0.7917763020164278</v>
@@ -9332,7 +9332,7 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>0.9051297320374383</v>
+        <v>0.9051297320374384</v>
       </c>
       <c r="D28" t="n">
         <v>0.8192598318181651</v>
@@ -9356,7 +9356,7 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>-0.8112349438824094</v>
+        <v>-0.8112349438824092</v>
       </c>
       <c r="D29" t="n">
         <v>0.6581021341758958</v>
@@ -9416,7 +9416,7 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>-0.8369880648499441</v>
+        <v>-0.836988064849944</v>
       </c>
       <c r="D32" t="n">
         <v>0.7005490207012541</v>
@@ -9436,7 +9436,7 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>-0.5250944393317654</v>
+        <v>-0.5250944393317653</v>
       </c>
       <c r="D33" t="n">
         <v>0.275724170217141</v>
@@ -9456,7 +9456,7 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>-0.7786989327140281</v>
+        <v>-0.7786989327140278</v>
       </c>
       <c r="D34" t="n">
         <v>0.6063720278099661</v>
@@ -9476,7 +9476,7 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>-0.9489457669536383</v>
+        <v>-0.948945766953638</v>
       </c>
       <c r="D35" t="n">
         <v>0.9004980686192287</v>
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>-0.8500571316056904</v>
+        <v>-0.8500571316056902</v>
       </c>
       <c r="D36" t="n">
         <v>0.7225971269936935</v>
@@ -9516,7 +9516,7 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>-0.9038786220452875</v>
+        <v>-0.9038786220452872</v>
       </c>
       <c r="D37" t="n">
         <v>0.8169965633904877</v>
@@ -9540,7 +9540,7 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>0.6456414787001278</v>
+        <v>0.6456414787001277</v>
       </c>
       <c r="D38" t="n">
         <v>0.4168529190180876</v>
@@ -9620,7 +9620,7 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>0.2511162559232902</v>
+        <v>0.2511162559232901</v>
       </c>
       <c r="D42" t="n">
         <v>0.06305937398893134</v>
@@ -9660,7 +9660,7 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>0.807956715216384</v>
+        <v>0.8079567152163839</v>
       </c>
       <c r="D44" t="n">
         <v>0.6527940536632487</v>
@@ -9724,7 +9724,7 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>0.8112349438824094</v>
+        <v>0.8112349438824092</v>
       </c>
       <c r="D47" t="n">
         <v>0.6581021341758958</v>
@@ -9784,7 +9784,7 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>0.8369880648499441</v>
+        <v>0.836988064849944</v>
       </c>
       <c r="D50" t="n">
         <v>0.7005490207012541</v>
@@ -9804,7 +9804,7 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>0.5250944393317654</v>
+        <v>0.5250944393317653</v>
       </c>
       <c r="D51" t="n">
         <v>0.275724170217141</v>
@@ -9824,7 +9824,7 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>0.7786989327140281</v>
+        <v>0.7786989327140278</v>
       </c>
       <c r="D52" t="n">
         <v>0.6063720278099661</v>
@@ -9844,7 +9844,7 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>0.9489457669536383</v>
+        <v>0.948945766953638</v>
       </c>
       <c r="D53" t="n">
         <v>0.9004980686192287</v>
@@ -9864,7 +9864,7 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>0.8500571316056904</v>
+        <v>0.8500571316056902</v>
       </c>
       <c r="D54" t="n">
         <v>0.7225971269936935</v>
@@ -9884,7 +9884,7 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>0.9038786220452875</v>
+        <v>0.9038786220452872</v>
       </c>
       <c r="D55" t="n">
         <v>0.8169965633904877</v>
@@ -9908,7 +9908,7 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>0.8047363183010684</v>
+        <v>0.8047363183010683</v>
       </c>
       <c r="D56" t="n">
         <v>0.6476005419927585</v>
@@ -9948,7 +9948,7 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>0.7272102028717902</v>
+        <v>0.7272102028717904</v>
       </c>
       <c r="D58" t="n">
         <v>0.5288346791608304</v>
@@ -9968,7 +9968,7 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>0.8960497287921356</v>
+        <v>0.8960497287921355</v>
       </c>
       <c r="D59" t="n">
         <v>0.8029051164684592</v>
@@ -9988,7 +9988,7 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>0.4766143464343616</v>
+        <v>0.4766143464343615</v>
       </c>
       <c r="D60" t="n">
         <v>0.2271612352270536</v>
@@ -10008,7 +10008,7 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>0.7907177275344472</v>
+        <v>0.7907177275344471</v>
       </c>
       <c r="D61" t="n">
         <v>0.6252345246372398</v>
@@ -10028,7 +10028,7 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>0.9036288796218421</v>
+        <v>0.903628879621842</v>
       </c>
       <c r="D62" t="n">
         <v>0.8165451520866253</v>
@@ -10132,7 +10132,7 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>0.6912982977218356</v>
+        <v>0.6912982977218357</v>
       </c>
       <c r="D67" t="n">
         <v>0.4778933364331078</v>
@@ -10172,7 +10172,7 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>0.4918072429603803</v>
+        <v>0.4918072429603802</v>
       </c>
       <c r="D69" t="n">
         <v>0.2418743642282905</v>
@@ -10212,7 +10212,7 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>0.9580325772928248</v>
+        <v>0.9580325772928245</v>
       </c>
       <c r="D71" t="n">
         <v>0.9178264191543323</v>
@@ -10356,7 +10356,7 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>0.294670000161269</v>
+        <v>0.2946700001612691</v>
       </c>
       <c r="D78" t="n">
         <v>0.08683040899504232</v>
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>0.8877618889941588</v>
+        <v>0.8877618889941586</v>
       </c>
       <c r="D80" t="n">
         <v>0.788121171550477</v>
@@ -10416,7 +10416,7 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>0.7537314849424872</v>
+        <v>0.7537314849424873</v>
       </c>
       <c r="D81" t="n">
         <v>0.5681111513936067</v>
@@ -10540,7 +10540,7 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>0.294670000161269</v>
+        <v>0.2946700001612691</v>
       </c>
       <c r="D87" t="n">
         <v>0.08683040899504232</v>
@@ -10580,7 +10580,7 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>0.8877618889941588</v>
+        <v>0.8877618889941586</v>
       </c>
       <c r="D89" t="n">
         <v>0.788121171550477</v>
@@ -10600,7 +10600,7 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>0.7537314849424872</v>
+        <v>0.7537314849424873</v>
       </c>
       <c r="D90" t="n">
         <v>0.5681111513936067</v>
@@ -10684,7 +10684,7 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>0.7179045446521728</v>
+        <v>0.717904544652173</v>
       </c>
       <c r="D94" t="n">
         <v>0.5153869352322439</v>
@@ -10724,7 +10724,7 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>0.6118116189656712</v>
+        <v>0.6118116189656708</v>
       </c>
       <c r="D96" t="n">
         <v>0.3743134571013953</v>
@@ -10764,7 +10764,7 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>0.9252066875793361</v>
+        <v>0.9252066875793359</v>
       </c>
       <c r="D98" t="n">
         <v>0.8560074147415274</v>
@@ -10784,7 +10784,7 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>0.8903369354289281</v>
+        <v>0.890336935428928</v>
       </c>
       <c r="D99" t="n">
         <v>0.7926998585889747</v>
@@ -10804,7 +10804,7 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>0.8239013879254012</v>
+        <v>0.823901387925401</v>
       </c>
       <c r="D100" t="n">
         <v>0.6788134970254025</v>
@@ -10818,17 +10818,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A47:A55"/>
+    <mergeCell ref="A65:A73"/>
+    <mergeCell ref="A38:A46"/>
+    <mergeCell ref="A74:A82"/>
+    <mergeCell ref="A83:A91"/>
+    <mergeCell ref="A56:A64"/>
+    <mergeCell ref="A20:A28"/>
+    <mergeCell ref="A92:A100"/>
+    <mergeCell ref="A29:A37"/>
     <mergeCell ref="A2:A10"/>
     <mergeCell ref="A11:A19"/>
-    <mergeCell ref="A20:A28"/>
-    <mergeCell ref="A29:A37"/>
-    <mergeCell ref="A38:A46"/>
-    <mergeCell ref="A47:A55"/>
-    <mergeCell ref="A56:A64"/>
-    <mergeCell ref="A65:A73"/>
-    <mergeCell ref="A74:A82"/>
-    <mergeCell ref="A83:A91"/>
-    <mergeCell ref="A92:A100"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
